--- a/pins.xlsx
+++ b/pins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\personal\xmas_ornament_2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEAE570-D2AC-49F8-980F-A61ADE28672C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAEDFE4-33A6-4E3C-BCAD-C325F15711CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27249" yWindow="1637" windowWidth="24686" windowHeight="13149" xr2:uid="{5AA132D8-5E21-4929-B002-C1726FF2303B}"/>
+    <workbookView xWindow="1500" yWindow="4332" windowWidth="9792" windowHeight="8928" xr2:uid="{5AA132D8-5E21-4929-B002-C1726FF2303B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
   <si>
     <t>PA10</t>
   </si>
@@ -177,9 +177,6 @@
     <t>TCC0_CH4</t>
   </si>
   <si>
-    <t>TCC1_CH3</t>
-  </si>
-  <si>
     <t>TCC2_CH1</t>
   </si>
   <si>
@@ -214,6 +211,39 @@
   </si>
   <si>
     <t>3,5</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D1</t>
   </si>
 </sst>
 </file>
@@ -229,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +290,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -273,13 +309,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,318 +631,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7268DBD7-2779-47EC-823C-CE37A2E1D6FB}">
-  <dimension ref="A2:G16"/>
+  <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="6" width="16.3046875" customWidth="1"/>
+    <col min="6" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="3">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="3">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="3">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
         <v>26</v>
       </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>36</v>
       </c>
-      <c r="F16" t="s">
-        <v>49</v>
+      <c r="G16" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
